--- a/data/georgia_census/kakheti/dedofliswyaro/education_graduates.xlsx
+++ b/data/georgia_census/kakheti/dedofliswyaro/education_graduates.xlsx
@@ -1857,13 +1857,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C8969E6-6D72-44ED-9D73-60420CC99CD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF7A1F9-7DE1-475A-85F4-0570EDFB4AF8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71C0D94A-5A07-4B80-8483-397C5FAAFB86}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2EFF707-D10D-43E8-BAA4-E2002263DD2A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62B6546E-2FFF-41F6-A099-EC30C5DBB415}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{518516B9-4497-4CC0-8ECA-1EEB8D889463}"/>
 </file>